--- a/computed_metrics.xlsx
+++ b/computed_metrics.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metrics" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Averages by Scan" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Averages by Phase" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +465,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>scan_143_b02.nii.gz</t>
+          <t>scan_143_b01.nii.gz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -473,20 +475,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7014470006966744</v>
+        <v>0.6872230172417307</v>
       </c>
       <c r="E2" t="n">
-        <v>39.319206502675</v>
+        <v>37.10795063055895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>scan_143_b01.nii.gz</t>
+          <t>scan_143_b02.nii.gz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -496,20 +498,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6872230172417307</v>
+        <v>0.7014470006966744</v>
       </c>
       <c r="E3" t="n">
-        <v>37.10795063055895</v>
+        <v>39.319206502675</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>scan_143_b04.nii.gz</t>
+          <t>scan_143_b03.nii.gz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -519,20 +521,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6402827404070219</v>
+        <v>0.6770390780323217</v>
       </c>
       <c r="E4" t="n">
-        <v>93.86160024205851</v>
+        <v>100.024996875781</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>scan_143_b05.nii.gz</t>
+          <t>scan_143_b04.nii.gz</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -542,20 +544,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6710869409539536</v>
+        <v>0.6402827404070219</v>
       </c>
       <c r="E5" t="n">
-        <v>38.7556447501522</v>
+        <v>93.86160024205851</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>scan_143_b03.nii.gz</t>
+          <t>scan_143_b05.nii.gz</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -565,14 +567,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6770390780323217</v>
+        <v>0.6710869409539536</v>
       </c>
       <c r="E6" t="n">
-        <v>100.024996875781</v>
+        <v>38.7556447501522</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +603,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>scan_143_b08.nii.gz</t>
+          <t>scan_143_b07.nii.gz</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -611,20 +613,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6639811575914272</v>
+        <v>0.638096219223241</v>
       </c>
       <c r="E8" t="n">
-        <v>33.85262175962151</v>
+        <v>37.06750598570127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>scan_143_b07.nii.gz</t>
+          <t>scan_143_b08.nii.gz</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -634,20 +636,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.638096219223241</v>
+        <v>0.6639811575914272</v>
       </c>
       <c r="E9" t="n">
-        <v>37.06750598570127</v>
+        <v>33.85262175962151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>scan_143_b10.nii.gz</t>
+          <t>scan_143_b09.nii.gz</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -657,20 +659,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.7443571755375934</v>
+        <v>0.7238200018594849</v>
       </c>
       <c r="E10" t="n">
-        <v>38.57460304397182</v>
+        <v>43.30127018922193</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>scan_143_b11.nii.gz</t>
+          <t>scan_143_b10.nii.gz</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -680,20 +682,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7202375631124188</v>
+        <v>0.7443571755375934</v>
       </c>
       <c r="E11" t="n">
-        <v>42.5440947723653</v>
+        <v>38.57460304397182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>scan_143_b09.nii.gz</t>
+          <t>scan_143_b11.nii.gz</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -703,14 +705,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.7238200018594849</v>
+        <v>0.7202375631124188</v>
       </c>
       <c r="E12" t="n">
-        <v>43.30127018922193</v>
+        <v>42.5440947723653</v>
       </c>
     </row>
     <row r="13">
@@ -739,7 +741,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>scan_143_b14.nii.gz</t>
+          <t>scan_143_b13.nii.gz</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -749,20 +751,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.7478486717720528</v>
+        <v>0.7215473431245802</v>
       </c>
       <c r="E14" t="n">
-        <v>89.73850901368932</v>
+        <v>42.40283009422838</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>scan_143_b13.nii.gz</t>
+          <t>scan_143_b14.nii.gz</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -772,43 +774,43 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.7215473431245802</v>
+        <v>0.7478486717720528</v>
       </c>
       <c r="E15" t="n">
-        <v>42.40283009422838</v>
+        <v>89.73850901368932</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>scan_144_b01.nii.gz</t>
+          <t>scan_143_b15.nii.gz</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>scan_144_</t>
+          <t>scan_143_</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.6700534603865597</v>
+        <v>0.7295882777030845</v>
       </c>
       <c r="E16" t="n">
-        <v>51.19570294468082</v>
+        <v>42.02380277890139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>scan_144_b02.nii.gz</t>
+          <t>scan_144_b01.nii.gz</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -818,37 +820,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.6844845051787228</v>
+        <v>0.6700534603865597</v>
       </c>
       <c r="E17" t="n">
-        <v>50.45790324617145</v>
+        <v>51.19570294468082</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>scan_143_b15.nii.gz</t>
+          <t>scan_144_b02.nii.gz</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>scan_143_</t>
+          <t>scan_144_</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.7295882777030845</v>
+        <v>0.6844845051787228</v>
       </c>
       <c r="E18" t="n">
-        <v>42.02380277890139</v>
+        <v>50.45790324617145</v>
       </c>
     </row>
     <row r="19">
@@ -877,7 +879,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>scan_144_b05.nii.gz</t>
+          <t>scan_144_b04.nii.gz</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -887,20 +889,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.7096138303534467</v>
+        <v>0.6931891313614215</v>
       </c>
       <c r="E20" t="n">
-        <v>36.29049462324811</v>
+        <v>28.93095228297886</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>scan_144_b04.nii.gz</t>
+          <t>scan_144_b05.nii.gz</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -910,20 +912,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.6931891313614215</v>
+        <v>0.7096138303534467</v>
       </c>
       <c r="E21" t="n">
-        <v>28.93095228297886</v>
+        <v>36.29049462324811</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>scan_144_b07.nii.gz</t>
+          <t>scan_144_b06.nii.gz</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -933,20 +935,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.6347576141922944</v>
+        <v>0.6508882925111416</v>
       </c>
       <c r="E22" t="n">
-        <v>34.0147027033899</v>
+        <v>51.40038910358559</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>scan_144_b08.nii.gz</t>
+          <t>scan_144_b07.nii.gz</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -956,20 +958,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.6505028126924556</v>
+        <v>0.6347576141922944</v>
       </c>
       <c r="E23" t="n">
-        <v>36.4828726939094</v>
+        <v>34.0147027033899</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>scan_144_b06.nii.gz</t>
+          <t>scan_144_b08.nii.gz</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -979,14 +981,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.6508882925111416</v>
+        <v>0.6505028126924556</v>
       </c>
       <c r="E24" t="n">
-        <v>51.40038910358559</v>
+        <v>36.4828726939094</v>
       </c>
     </row>
     <row r="25">
@@ -1015,7 +1017,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>scan_144_b11.nii.gz</t>
+          <t>scan_144_b10.nii.gz</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1025,20 +1027,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.6338942188609455</v>
+        <v>0.6189262447501563</v>
       </c>
       <c r="E26" t="n">
-        <v>33.34666400106613</v>
+        <v>50.70502933634887</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>scan_144_b10.nii.gz</t>
+          <t>scan_144_b11.nii.gz</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1048,20 +1050,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.6189262447501563</v>
+        <v>0.6338942188609455</v>
       </c>
       <c r="E27" t="n">
-        <v>50.70502933634887</v>
+        <v>33.34666400106613</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>scan_144_b13.nii.gz</t>
+          <t>scan_144_b12.nii.gz</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1071,20 +1073,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.6277249368631344</v>
+        <v>0.6326476596941349</v>
       </c>
       <c r="E28" t="n">
-        <v>52.58326730053962</v>
+        <v>51.487862647424</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>scan_144_b14.nii.gz</t>
+          <t>scan_144_b13.nii.gz</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1094,20 +1096,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.6339309171431073</v>
+        <v>0.6277249368631344</v>
       </c>
       <c r="E29" t="n">
-        <v>51.77837386399847</v>
+        <v>52.58326730053962</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>scan_144_b12.nii.gz</t>
+          <t>scan_144_b14.nii.gz</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1117,14 +1119,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.6326476596941349</v>
+        <v>0.6339309171431073</v>
       </c>
       <c r="E30" t="n">
-        <v>51.487862647424</v>
+        <v>51.77837386399847</v>
       </c>
     </row>
     <row r="31">
@@ -1153,7 +1155,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>scan_146_b02.nii.gz</t>
+          <t>scan_146_b01.nii.gz</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1163,20 +1165,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.6077492681246771</v>
+        <v>0.6362944484376982</v>
       </c>
       <c r="E32" t="n">
-        <v>77.87810988975015</v>
+        <v>74.73954776421918</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>scan_146_b01.nii.gz</t>
+          <t>scan_146_b02.nii.gz</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1186,20 +1188,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.6362944484376982</v>
+        <v>0.6077492681246771</v>
       </c>
       <c r="E33" t="n">
-        <v>74.73954776421918</v>
+        <v>77.87810988975015</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>scan_146_b04.nii.gz</t>
+          <t>scan_146_b03.nii.gz</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1209,20 +1211,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.5870933724582197</v>
+        <v>0.6592438044701456</v>
       </c>
       <c r="E34" t="n">
-        <v>70.8590149522275</v>
+        <v>77.92945527847606</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>scan_146_b05.nii.gz</t>
+          <t>scan_146_b04.nii.gz</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1232,20 +1234,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.6976620240251494</v>
+        <v>0.5870933724582197</v>
       </c>
       <c r="E35" t="n">
-        <v>76.79192665899195</v>
+        <v>70.8590149522275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>scan_146_b03.nii.gz</t>
+          <t>scan_146_b05.nii.gz</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1255,14 +1257,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.6592438044701456</v>
+        <v>0.6976620240251494</v>
       </c>
       <c r="E36" t="n">
-        <v>77.92945527847606</v>
+        <v>76.79192665899195</v>
       </c>
     </row>
     <row r="37">
@@ -1291,7 +1293,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>scan_146_b08.nii.gz</t>
+          <t>scan_146_b07.nii.gz</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1301,20 +1303,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5889165741824322</v>
+        <v>0.5744140483274073</v>
       </c>
       <c r="E38" t="n">
-        <v>71.80529228406496</v>
+        <v>76.90253571892151</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>scan_146_b07.nii.gz</t>
+          <t>scan_146_b08.nii.gz</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1324,20 +1326,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.5744140483274073</v>
+        <v>0.5889165741824322</v>
       </c>
       <c r="E39" t="n">
-        <v>76.90253571892151</v>
+        <v>71.80529228406496</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>scan_146_b10.nii.gz</t>
+          <t>scan_146_b09.nii.gz</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1347,20 +1349,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.6065600642565014</v>
+        <v>0.6622601148063221</v>
       </c>
       <c r="E40" t="n">
-        <v>75.67033764957046</v>
+        <v>37.42993454442581</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>scan_146_b11.nii.gz</t>
+          <t>scan_146_b10.nii.gz</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1370,20 +1372,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.7467017899941701</v>
+        <v>0.6065600642565014</v>
       </c>
       <c r="E41" t="n">
-        <v>30.93541659651604</v>
+        <v>75.67033764957046</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>scan_146_b09.nii.gz</t>
+          <t>scan_146_b11.nii.gz</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1393,14 +1395,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.6622601148063221</v>
+        <v>0.7467017899941701</v>
       </c>
       <c r="E42" t="n">
-        <v>37.42993454442581</v>
+        <v>30.93541659651604</v>
       </c>
     </row>
     <row r="43">
@@ -1429,7 +1431,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>scan_146_b14.nii.gz</t>
+          <t>scan_146_b13.nii.gz</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1439,20 +1441,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.6125509536510493</v>
+        <v>0.5895745094558151</v>
       </c>
       <c r="E44" t="n">
-        <v>36.35931792539569</v>
+        <v>36.01388621073821</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>scan_146_b13.nii.gz</t>
+          <t>scan_146_b14.nii.gz</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1462,43 +1464,43 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.5895745094558151</v>
+        <v>0.6125509536510493</v>
       </c>
       <c r="E45" t="n">
-        <v>36.01388621073821</v>
+        <v>36.35931792539569</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>scan_201_b01.nii.gz</t>
+          <t>scan_146_b15.nii.gz</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>scan_201_</t>
+          <t>scan_146_</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8367159159413239</v>
+        <v>0.6160130788339455</v>
       </c>
       <c r="E46" t="n">
-        <v>30.54504869860253</v>
+        <v>52.81098370604357</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>scan_201_b02.nii.gz</t>
+          <t>scan_201_b01.nii.gz</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1508,37 +1510,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.834639722392325</v>
+        <v>0.8367159159413239</v>
       </c>
       <c r="E47" t="n">
-        <v>25.09980079602227</v>
+        <v>30.54504869860253</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>scan_146_b15.nii.gz</t>
+          <t>scan_201_b02.nii.gz</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>scan_146_</t>
+          <t>scan_201_</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.6160130788339455</v>
+        <v>0.834639722392325</v>
       </c>
       <c r="E48" t="n">
-        <v>52.81098370604357</v>
+        <v>25.09980079602227</v>
       </c>
     </row>
     <row r="49">
@@ -1567,7 +1569,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>scan_201_b05.nii.gz</t>
+          <t>scan_201_b04.nii.gz</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1577,20 +1579,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.8503343225273281</v>
+        <v>0.8478589058493686</v>
       </c>
       <c r="E50" t="n">
-        <v>22.86919325205854</v>
+        <v>16.583123951777</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>scan_201_b04.nii.gz</t>
+          <t>scan_201_b05.nii.gz</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1600,20 +1602,20 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.8478589058493686</v>
+        <v>0.8503343225273281</v>
       </c>
       <c r="E51" t="n">
-        <v>16.583123951777</v>
+        <v>22.86919325205854</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>scan_201_b07.nii.gz</t>
+          <t>scan_201_b06.nii.gz</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1623,20 +1625,20 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.8304223439848712</v>
+        <v>0.8616471391090639</v>
       </c>
       <c r="E52" t="n">
-        <v>31.70173496829472</v>
+        <v>28.63564212655271</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>scan_201_b08.nii.gz</t>
+          <t>scan_201_b07.nii.gz</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1646,20 +1648,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.8435448156349282</v>
+        <v>0.8304223439848712</v>
       </c>
       <c r="E53" t="n">
-        <v>30.54504869860253</v>
+        <v>31.70173496829472</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>scan_201_b06.nii.gz</t>
+          <t>scan_201_b08.nii.gz</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1669,14 +1671,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.8616471391090639</v>
+        <v>0.8435448156349282</v>
       </c>
       <c r="E54" t="n">
-        <v>28.63564212655271</v>
+        <v>30.54504869860253</v>
       </c>
     </row>
     <row r="55">
@@ -1705,7 +1707,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>scan_201_b11.nii.gz</t>
+          <t>scan_201_b10.nii.gz</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1715,20 +1717,20 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.8158996454423831</v>
+        <v>0.8306378999000095</v>
       </c>
       <c r="E56" t="n">
-        <v>16.24807680927192</v>
+        <v>25.70992026436488</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>scan_201_b10.nii.gz</t>
+          <t>scan_201_b11.nii.gz</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1738,20 +1740,20 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.8306378999000095</v>
+        <v>0.8158996454423831</v>
       </c>
       <c r="E57" t="n">
-        <v>25.70992026436488</v>
+        <v>16.24807680927192</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>scan_201_b13.nii.gz</t>
+          <t>scan_201_b12.nii.gz</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1761,20 +1763,20 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.8446069281832158</v>
+        <v>0.8230424355096319</v>
       </c>
       <c r="E58" t="n">
-        <v>13.92838827718412</v>
+        <v>27.09243436828813</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>scan_201_b14.nii.gz</t>
+          <t>scan_201_b13.nii.gz</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1784,20 +1786,20 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.8317026366289004</v>
+        <v>0.8446069281832158</v>
       </c>
       <c r="E59" t="n">
-        <v>23.17326045251293</v>
+        <v>13.92838827718412</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>scan_201_b12.nii.gz</t>
+          <t>scan_201_b14.nii.gz</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1807,14 +1809,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.8230424355096319</v>
+        <v>0.8317026366289004</v>
       </c>
       <c r="E60" t="n">
-        <v>27.09243436828813</v>
+        <v>23.17326045251293</v>
       </c>
     </row>
     <row r="61">
@@ -1843,7 +1845,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>scan_213_b02.nii.gz</t>
+          <t>scan_213_b01.nii.gz</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1853,20 +1855,20 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.5003598219186437</v>
+        <v>0.5072278505208832</v>
       </c>
       <c r="E62" t="n">
-        <v>51.487862647424</v>
+        <v>51.34199061197374</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>scan_213_b01.nii.gz</t>
+          <t>scan_213_b02.nii.gz</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1876,20 +1878,20 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.5072278505208832</v>
+        <v>0.5003598219186437</v>
       </c>
       <c r="E63" t="n">
-        <v>51.34199061197374</v>
+        <v>51.487862647424</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>scan_213_b04.nii.gz</t>
+          <t>scan_213_b03.nii.gz</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1899,20 +1901,20 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.4935484866249113</v>
+        <v>0.5069808672527147</v>
       </c>
       <c r="E64" t="n">
-        <v>51.17616632769595</v>
+        <v>51.40038910358559</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>scan_213_b05.nii.gz</t>
+          <t>scan_213_b04.nii.gz</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1922,20 +1924,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.5054846113851655</v>
+        <v>0.4935484866249113</v>
       </c>
       <c r="E65" t="n">
-        <v>50.73460357586329</v>
+        <v>51.17616632769595</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>scan_213_b03.nii.gz</t>
+          <t>scan_213_b05.nii.gz</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1945,14 +1947,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.5069808672527147</v>
+        <v>0.5054846113851655</v>
       </c>
       <c r="E66" t="n">
-        <v>51.40038910358559</v>
+        <v>50.73460357586329</v>
       </c>
     </row>
     <row r="67">
@@ -1981,7 +1983,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>scan_213_b08.nii.gz</t>
+          <t>scan_213_b07.nii.gz</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1991,20 +1993,20 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.4915722264565867</v>
+        <v>0.5280028131297421</v>
       </c>
       <c r="E68" t="n">
-        <v>59.53990258641679</v>
+        <v>58.83026432033091</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>scan_213_b07.nii.gz</t>
+          <t>scan_213_b08.nii.gz</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2014,20 +2016,20 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.5280028131297421</v>
+        <v>0.4915722264565867</v>
       </c>
       <c r="E69" t="n">
-        <v>58.83026432033091</v>
+        <v>59.53990258641679</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>scan_213_b10.nii.gz</t>
+          <t>scan_213_b09.nii.gz</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2037,20 +2039,20 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.4808300351559909</v>
+        <v>0.4783854419846848</v>
       </c>
       <c r="E70" t="n">
-        <v>50.85272854036448</v>
+        <v>49.80963762164909</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>scan_213_b11.nii.gz</t>
+          <t>scan_213_b10.nii.gz</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2060,20 +2062,20 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.4828685611805471</v>
+        <v>0.4808300351559909</v>
       </c>
       <c r="E71" t="n">
-        <v>51.97114584074513</v>
+        <v>50.85272854036448</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>scan_213_b09.nii.gz</t>
+          <t>scan_213_b11.nii.gz</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2083,14 +2085,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.4783854419846848</v>
+        <v>0.4828685611805471</v>
       </c>
       <c r="E72" t="n">
-        <v>49.80963762164909</v>
+        <v>51.97114584074513</v>
       </c>
     </row>
     <row r="73">
@@ -2119,7 +2121,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>scan_213_b14.nii.gz</t>
+          <t>scan_213_b13.nii.gz</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2129,20 +2131,20 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.5197833126532094</v>
+        <v>0.4878986005964671</v>
       </c>
       <c r="E74" t="n">
-        <v>51.234753829798</v>
+        <v>52.83937925449163</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>scan_213_b13.nii.gz</t>
+          <t>scan_213_b14.nii.gz</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2152,43 +2154,43 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.4878986005964671</v>
+        <v>0.5197833126532094</v>
       </c>
       <c r="E75" t="n">
-        <v>52.83937925449163</v>
+        <v>51.234753829798</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>scan_216_b01.nii.gz</t>
+          <t>scan_213_b15.nii.gz</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>scan_216_</t>
+          <t>scan_213_</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.5024170242120501</v>
+        <v>0.4882479752956942</v>
       </c>
       <c r="E76" t="n">
-        <v>51.487862647424</v>
+        <v>49.48737212663449</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>scan_216_b02.nii.gz</t>
+          <t>scan_216_b01.nii.gz</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2198,37 +2200,37 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.5123806473567268</v>
+        <v>0.5024170242120501</v>
       </c>
       <c r="E77" t="n">
-        <v>51.0098029794274</v>
+        <v>51.487862647424</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>scan_213_b15.nii.gz</t>
+          <t>scan_216_b02.nii.gz</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>scan_213_</t>
+          <t>scan_216_</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.4882479752956942</v>
+        <v>0.5123806473567268</v>
       </c>
       <c r="E78" t="n">
-        <v>49.48737212663449</v>
+        <v>51.0098029794274</v>
       </c>
     </row>
     <row r="79">
@@ -2257,7 +2259,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>scan_216_b05.nii.gz</t>
+          <t>scan_216_b04.nii.gz</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2267,20 +2269,20 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.5481181525724955</v>
+        <v>0.5218668439698717</v>
       </c>
       <c r="E80" t="n">
-        <v>51.07837115648854</v>
+        <v>50.24937810560445</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>scan_216_b04.nii.gz</t>
+          <t>scan_216_b05.nii.gz</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2290,20 +2292,20 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.5218668439698717</v>
+        <v>0.5481181525724955</v>
       </c>
       <c r="E81" t="n">
-        <v>50.24937810560445</v>
+        <v>51.07837115648854</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>scan_216_b07.nii.gz</t>
+          <t>scan_216_b06.nii.gz</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2313,20 +2315,20 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.524886555199617</v>
+        <v>0.5742598809705478</v>
       </c>
       <c r="E82" t="n">
-        <v>49.55804677345547</v>
+        <v>50.36864103785211</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>scan_216_b08.nii.gz</t>
+          <t>scan_216_b07.nii.gz</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2336,20 +2338,20 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.5244955573694636</v>
+        <v>0.524886555199617</v>
       </c>
       <c r="E83" t="n">
-        <v>49.02040391510457</v>
+        <v>49.55804677345547</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>scan_216_b06.nii.gz</t>
+          <t>scan_216_b08.nii.gz</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2359,14 +2361,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.5742598809705478</v>
+        <v>0.5244955573694636</v>
       </c>
       <c r="E84" t="n">
-        <v>50.36864103785211</v>
+        <v>49.02040391510457</v>
       </c>
     </row>
     <row r="85">
@@ -2395,7 +2397,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>scan_216_b11.nii.gz</t>
+          <t>scan_216_b10.nii.gz</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2405,20 +2407,20 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.559954667747761</v>
+        <v>0.5431696899752414</v>
       </c>
       <c r="E86" t="n">
-        <v>51.32250968142536</v>
+        <v>51.54609587543949</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>scan_216_b10.nii.gz</t>
+          <t>scan_216_b11.nii.gz</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2428,20 +2430,20 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.5431696899752414</v>
+        <v>0.559954667747761</v>
       </c>
       <c r="E87" t="n">
-        <v>51.54609587543949</v>
+        <v>51.32250968142536</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>scan_216_b13.nii.gz</t>
+          <t>scan_216_b12.nii.gz</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2451,20 +2453,20 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.4956427785238965</v>
+        <v>0.4673982835268572</v>
       </c>
       <c r="E88" t="n">
-        <v>51.98076567346811</v>
+        <v>57.81003373117854</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>scan_216_b14.nii.gz</t>
+          <t>scan_216_b13.nii.gz</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2474,20 +2476,20 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.5328389151296244</v>
+        <v>0.4956427785238965</v>
       </c>
       <c r="E89" t="n">
-        <v>54.18486873657626</v>
+        <v>51.98076567346811</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>scan_216_b12.nii.gz</t>
+          <t>scan_216_b14.nii.gz</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2497,14 +2499,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.4673982835268572</v>
+        <v>0.5328389151296244</v>
       </c>
       <c r="E90" t="n">
-        <v>57.81003373117854</v>
+        <v>54.18486873657626</v>
       </c>
     </row>
     <row r="91">
@@ -2533,7 +2535,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>scan_218_b02.nii.gz</t>
+          <t>scan_218_b01.nii.gz</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2543,20 +2545,20 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.8922758025652627</v>
+        <v>0.8942323063608351</v>
       </c>
       <c r="E92" t="n">
-        <v>15.90597372058687</v>
+        <v>14.52583904633395</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>scan_218_b01.nii.gz</t>
+          <t>scan_218_b02.nii.gz</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2566,20 +2568,20 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.8942323063608351</v>
+        <v>0.8922758025652627</v>
       </c>
       <c r="E93" t="n">
-        <v>14.52583904633395</v>
+        <v>15.90597372058687</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>scan_218_b04.nii.gz</t>
+          <t>scan_218_b03.nii.gz</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2589,20 +2591,20 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.8823241916873668</v>
+        <v>0.8870335713246399</v>
       </c>
       <c r="E94" t="n">
-        <v>20.07485989988473</v>
+        <v>16.49242250247064</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>scan_218_b05.nii.gz</t>
+          <t>scan_218_b04.nii.gz</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2612,20 +2614,20 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.8888445459896837</v>
+        <v>0.8823241916873668</v>
       </c>
       <c r="E95" t="n">
-        <v>17.46424919657298</v>
+        <v>20.07485989988473</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>scan_218_b03.nii.gz</t>
+          <t>scan_218_b05.nii.gz</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2635,14 +2637,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.8870335713246399</v>
+        <v>0.8888445459896837</v>
       </c>
       <c r="E96" t="n">
-        <v>16.49242250247064</v>
+        <v>17.46424919657298</v>
       </c>
     </row>
     <row r="97">
@@ -2671,7 +2673,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>scan_218_b08.nii.gz</t>
+          <t>scan_218_b07.nii.gz</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2681,20 +2683,20 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.8837918749967684</v>
+        <v>0.8742428538289043</v>
       </c>
       <c r="E98" t="n">
-        <v>15.29705854077836</v>
+        <v>20.02498439450079</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>scan_218_b07.nii.gz</t>
+          <t>scan_218_b08.nii.gz</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2704,20 +2706,20 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.8742428538289043</v>
+        <v>0.8837918749967684</v>
       </c>
       <c r="E99" t="n">
-        <v>20.02498439450079</v>
+        <v>15.29705854077836</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>scan_218_b10.nii.gz</t>
+          <t>scan_218_b09.nii.gz</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2727,20 +2729,20 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.8797709526288392</v>
+        <v>0.8862182495193356</v>
       </c>
       <c r="E100" t="n">
-        <v>15.1657508881031</v>
+        <v>15.90597372058687</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>scan_218_b11.nii.gz</t>
+          <t>scan_218_b10.nii.gz</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2750,20 +2752,20 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.8707968531912194</v>
+        <v>0.8797709526288392</v>
       </c>
       <c r="E101" t="n">
-        <v>13.60147050873544</v>
+        <v>15.1657508881031</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>scan_218_b09.nii.gz</t>
+          <t>scan_218_b11.nii.gz</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2773,14 +2775,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.8862182495193356</v>
+        <v>0.8707968531912194</v>
       </c>
       <c r="E102" t="n">
-        <v>15.90597372058687</v>
+        <v>13.60147050873544</v>
       </c>
     </row>
     <row r="103">
@@ -2809,7 +2811,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>scan_218_b14.nii.gz</t>
+          <t>scan_218_b13.nii.gz</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2819,20 +2821,20 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.8704551366849135</v>
+        <v>0.8740691870494649</v>
       </c>
       <c r="E104" t="n">
-        <v>13.45362404707371</v>
+        <v>14.35270009440732</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>scan_218_b13.nii.gz</t>
+          <t>scan_218_b14.nii.gz</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2842,43 +2844,43 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.8740691870494649</v>
+        <v>0.8704551366849135</v>
       </c>
       <c r="E105" t="n">
-        <v>14.35270009440732</v>
+        <v>13.45362404707371</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>scan_224_b01.nii.gz</t>
+          <t>scan_218_b15.nii.gz</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>scan_224_</t>
+          <t>scan_218_</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.6419472840632837</v>
+        <v>0.8897871899361188</v>
       </c>
       <c r="E106" t="n">
-        <v>65.64297372910524</v>
+        <v>13.78404875209022</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>scan_224_b02.nii.gz</t>
+          <t>scan_224_b01.nii.gz</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2888,37 +2890,37 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.7425669012657544</v>
+        <v>0.6419472840632837</v>
       </c>
       <c r="E107" t="n">
-        <v>68.18357573492314</v>
+        <v>65.64297372910524</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>scan_218_b15.nii.gz</t>
+          <t>scan_224_b02.nii.gz</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>scan_218_</t>
+          <t>scan_224_</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.8897871899361188</v>
+        <v>0.7425669012657544</v>
       </c>
       <c r="E108" t="n">
-        <v>13.78404875209022</v>
+        <v>68.18357573492314</v>
       </c>
     </row>
     <row r="109">
@@ -2947,7 +2949,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>scan_224_b05.nii.gz</t>
+          <t>scan_224_b04.nii.gz</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2957,20 +2959,20 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.762062062646271</v>
+        <v>0.7712487190748061</v>
       </c>
       <c r="E110" t="n">
-        <v>57.94825277780168</v>
+        <v>61.62791575252241</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>scan_224_b04.nii.gz</t>
+          <t>scan_224_b05.nii.gz</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2980,20 +2982,20 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.7712487190748061</v>
+        <v>0.762062062646271</v>
       </c>
       <c r="E111" t="n">
-        <v>61.62791575252241</v>
+        <v>57.94825277780168</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>scan_224_b07.nii.gz</t>
+          <t>scan_224_b06.nii.gz</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3003,20 +3005,20 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.6480425390495181</v>
+        <v>0.6958116592489656</v>
       </c>
       <c r="E112" t="n">
-        <v>60.67124524847005</v>
+        <v>57.96550698475775</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>scan_224_b08.nii.gz</t>
+          <t>scan_224_b07.nii.gz</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3026,20 +3028,20 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.6924450585260304</v>
+        <v>0.6480425390495181</v>
       </c>
       <c r="E113" t="n">
-        <v>60.34898507845845</v>
+        <v>60.67124524847005</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>scan_224_b06.nii.gz</t>
+          <t>scan_224_b08.nii.gz</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3049,14 +3051,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.6958116592489656</v>
+        <v>0.6924450585260304</v>
       </c>
       <c r="E114" t="n">
-        <v>57.96550698475775</v>
+        <v>60.34898507845845</v>
       </c>
     </row>
     <row r="115">
@@ -3085,7 +3087,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>scan_224_b11.nii.gz</t>
+          <t>scan_224_b10.nii.gz</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3095,20 +3097,20 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.7762695414961704</v>
+        <v>0.7756915783422788</v>
       </c>
       <c r="E116" t="n">
-        <v>63.51377803280167</v>
+        <v>60.34069936618236</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>scan_224_b10.nii.gz</t>
+          <t>scan_224_b11.nii.gz</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3118,20 +3120,20 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.7756915783422788</v>
+        <v>0.7762695414961704</v>
       </c>
       <c r="E117" t="n">
-        <v>60.34069936618236</v>
+        <v>63.51377803280167</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>scan_224_b13.nii.gz</t>
+          <t>scan_224_b12.nii.gz</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3141,20 +3143,20 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.7581369892632959</v>
+        <v>0.770777293846286</v>
       </c>
       <c r="E118" t="n">
-        <v>64.17164482853778</v>
+        <v>65.98484674529449</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>scan_224_b14.nii.gz</t>
+          <t>scan_224_b13.nii.gz</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3164,20 +3166,20 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.6985747651724961</v>
+        <v>0.7581369892632959</v>
       </c>
       <c r="E119" t="n">
-        <v>62.84902544988267</v>
+        <v>64.17164482853778</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>scan_224_b12.nii.gz</t>
+          <t>scan_224_b14.nii.gz</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3187,14 +3189,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.770777293846286</v>
+        <v>0.6985747651724961</v>
       </c>
       <c r="E120" t="n">
-        <v>65.98484674529449</v>
+        <v>62.84902544988267</v>
       </c>
     </row>
     <row r="121">
@@ -3218,6 +3220,377 @@
       </c>
       <c r="E121" t="n">
         <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Base Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average Dice</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Average Hausdorff</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>scan_143_</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6940252564494287</v>
+      </c>
+      <c r="C2" t="n">
+        <v>51.83592722277827</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>scan_144_</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.65324182911886</v>
+      </c>
+      <c r="C3" t="n">
+        <v>45.7596742442879</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>scan_146_</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6267795495082444</v>
+      </c>
+      <c r="C4" t="n">
+        <v>63.35683210582744</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>scan_201_</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8338314852111982</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24.5247627598965</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>scan_213_</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.500102653651101</v>
+      </c>
+      <c r="C6" t="n">
+        <v>52.3468000579489</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>scan_216_</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5211042558567456</v>
+      </c>
+      <c r="C7" t="n">
+        <v>51.58858293490711</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>scan_218_</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8819865573500194</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16.37811495432389</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>scan_224_</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7322162207838115</v>
+      </c>
+      <c r="C9" t="n">
+        <v>62.02911431004803</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Phase</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average Dice</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Average Hausdorff</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6720139133955456</v>
+      </c>
+      <c r="C2" t="n">
+        <v>47.0733645091123</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6844879586873485</v>
+      </c>
+      <c r="C3" t="n">
+        <v>47.41777943962254</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6919710824018176</v>
+      </c>
+      <c r="C4" t="n">
+        <v>55.06402288885418</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6796765489291234</v>
+      </c>
+      <c r="C5" t="n">
+        <v>49.17037643934367</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7041508113066867</v>
+      </c>
+      <c r="C6" t="n">
+        <v>43.99159199889716</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6867239635241674</v>
+      </c>
+      <c r="C7" t="n">
+        <v>46.32855842654544</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6566081233669494</v>
+      </c>
+      <c r="C8" t="n">
+        <v>46.09637751413308</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6674062596812615</v>
+      </c>
+      <c r="C9" t="n">
+        <v>44.61152319461956</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6795412279032864</v>
+      </c>
+      <c r="C10" t="n">
+        <v>42.1823194312697</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6849929550683264</v>
+      </c>
+      <c r="C11" t="n">
+        <v>46.07064562054318</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7008278551282019</v>
+      </c>
+      <c r="C12" t="n">
+        <v>37.93539453036588</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6661835790509347</v>
+      </c>
+      <c r="C13" t="n">
+        <v>52.1783071160477</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6749001591324837</v>
+      </c>
+      <c r="C14" t="n">
+        <v>41.0341077166994</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6809606636044192</v>
+      </c>
+      <c r="C15" t="n">
+        <v>47.84646666486589</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6757195386870885</v>
+      </c>
+      <c r="C16" t="n">
+        <v>42.66130561536414</v>
       </c>
     </row>
   </sheetData>
